--- a/corona-server-side-asp.net/Excels/Sections/תחלואה ואשפוזי ילדים/last-month.xlsx
+++ b/corona-server-side-asp.net/Excels/Sections/תחלואה ואשפוזי ילדים/last-month.xlsx
@@ -19,19 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>04.05-10.05</t>
-  </si>
-  <si>
-    <t>11.05-17.05</t>
-  </si>
-  <si>
-    <t>18.05-24.05</t>
-  </si>
-  <si>
-    <t>שבוע נוכחי</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="37">
   <si>
     <t>key</t>
   </si>
@@ -39,10 +27,109 @@
     <t>value</t>
   </si>
   <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>dummy point</t>
+    <t>10-05-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16-19</t>
+  </si>
+  <si>
+    <t>11-05-2025</t>
+  </si>
+  <si>
+    <t>12-05-2025</t>
+  </si>
+  <si>
+    <t>13-05-2025</t>
+  </si>
+  <si>
+    <t>14-05-2025</t>
+  </si>
+  <si>
+    <t>15-05-2025</t>
+  </si>
+  <si>
+    <t>16-05-2025</t>
+  </si>
+  <si>
+    <t>17-05-2025</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>18-05-2025</t>
+  </si>
+  <si>
+    <t>19-05-2025</t>
+  </si>
+  <si>
+    <t>20-05-2025</t>
+  </si>
+  <si>
+    <t>21-05-2025</t>
+  </si>
+  <si>
+    <t>22-05-2025</t>
+  </si>
+  <si>
+    <t>23-05-2025</t>
+  </si>
+  <si>
+    <t>24-05-2025</t>
+  </si>
+  <si>
+    <t>25-05-2025</t>
+  </si>
+  <si>
+    <t>26-05-2025</t>
+  </si>
+  <si>
+    <t>27-05-2025</t>
+  </si>
+  <si>
+    <t>28-05-2025</t>
+  </si>
+  <si>
+    <t>29-05-2025</t>
+  </si>
+  <si>
+    <t>30-05-2025</t>
+  </si>
+  <si>
+    <t>31-05-2025</t>
+  </si>
+  <si>
+    <t>01-06-2025</t>
+  </si>
+  <si>
+    <t>02-06-2025</t>
+  </si>
+  <si>
+    <t>03-06-2025</t>
+  </si>
+  <si>
+    <t>04-06-2025</t>
+  </si>
+  <si>
+    <t>05-06-2025</t>
+  </si>
+  <si>
+    <t>06-06-2025</t>
+  </si>
+  <si>
+    <t>07-06-2025</t>
+  </si>
+  <si>
+    <t>08-06-2025</t>
   </si>
 </sst>
 </file>
@@ -94,14 +181,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,62 +469,1345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>8</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>7</v>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
       </c>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>6</v>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
